--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
@@ -496,28 +496,28 @@
         <v>0.0125</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.0125</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.0125</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>-0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>-0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>-0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.76065545560933</v>
+        <v>0.695318353236242</v>
       </c>
       <c r="B2" t="n">
-        <v>5.81045399792448</v>
+        <v>2.82213246372527</v>
       </c>
       <c r="C2" t="n">
-        <v>30.1336017086934</v>
+        <v>16.701153891933</v>
       </c>
       <c r="D2" t="n">
-        <v>46.0396438801666</v>
+        <v>27.022447057897</v>
       </c>
       <c r="E2" t="n">
-        <v>20.2853450091365</v>
+        <v>12.2140183092377</v>
       </c>
       <c r="F2" t="n">
-        <v>15.1786673146228</v>
+        <v>9.25771839972021</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9851569428253</v>
+        <v>7.97742817813442</v>
       </c>
       <c r="H2" t="n">
-        <v>11.7618541530477</v>
+        <v>7.25803343393073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.10538094420225</v>
+        <v>1.1734923062139</v>
       </c>
       <c r="B3" t="n">
-        <v>6.87084701703344</v>
+        <v>4.25811234121739</v>
       </c>
       <c r="C3" t="n">
-        <v>35.4524008525189</v>
+        <v>23.7322121815382</v>
       </c>
       <c r="D3" t="n">
-        <v>53.8797402544697</v>
+        <v>37.3320701064732</v>
       </c>
       <c r="E3" t="n">
-        <v>23.6389792503256</v>
+        <v>16.6272291569155</v>
       </c>
       <c r="F3" t="n">
-        <v>17.6358305917399</v>
+        <v>12.4965893660471</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0564208217328</v>
+        <v>10.7118912081208</v>
       </c>
       <c r="H3" t="n">
-        <v>13.6180629354508</v>
+        <v>9.71178600959228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.67938785983981</v>
+        <v>1.99987372682743</v>
       </c>
       <c r="B4" t="n">
-        <v>8.55796186075365</v>
+        <v>6.64528392101106</v>
       </c>
       <c r="C4" t="n">
-        <v>44.0545958497156</v>
+        <v>35.5339474961015</v>
       </c>
       <c r="D4" t="n">
-        <v>66.7727112607885</v>
+        <v>54.8039296715734</v>
       </c>
       <c r="E4" t="n">
-        <v>29.2166505025248</v>
+        <v>24.1568574998955</v>
       </c>
       <c r="F4" t="n">
-        <v>21.7539869908734</v>
+        <v>18.0491227023978</v>
       </c>
       <c r="G4" t="n">
-        <v>18.5466923715656</v>
+        <v>15.4161300746465</v>
       </c>
       <c r="H4" t="n">
-        <v>16.7585938080283</v>
+        <v>13.9444125031374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.93192465509868</v>
+        <v>0.390966668743157</v>
       </c>
       <c r="B5" t="n">
-        <v>6.04383794271232</v>
+        <v>1.58215724420104</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7879676066167</v>
+        <v>11.9842409796837</v>
       </c>
       <c r="D5" t="n">
-        <v>48.8106512285181</v>
+        <v>21.0441079526493</v>
       </c>
       <c r="E5" t="n">
-        <v>21.5113848951203</v>
+        <v>9.77914914965652</v>
       </c>
       <c r="F5" t="n">
-        <v>16.0820907992218</v>
+        <v>7.49318996934679</v>
       </c>
       <c r="G5" t="n">
-        <v>13.7449286030272</v>
+        <v>6.48800969147676</v>
       </c>
       <c r="H5" t="n">
-        <v>12.4400479428246</v>
+        <v>5.91678506918312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.21906670983326</v>
+        <v>0.928002168588711</v>
       </c>
       <c r="B6" t="n">
-        <v>6.79779747457619</v>
+        <v>3.0775833715798</v>
       </c>
       <c r="C6" t="n">
-        <v>35.6113269180326</v>
+        <v>19.1168351058915</v>
       </c>
       <c r="D6" t="n">
-        <v>54.4735073740853</v>
+        <v>31.3922953473932</v>
       </c>
       <c r="E6" t="n">
-        <v>23.937687917079</v>
+        <v>14.194264129926</v>
       </c>
       <c r="F6" t="n">
-        <v>17.8649170107253</v>
+        <v>10.7343056585848</v>
       </c>
       <c r="G6" t="n">
-        <v>15.2530565081678</v>
+        <v>9.22892629980822</v>
       </c>
       <c r="H6" t="n">
-        <v>13.7961725575187</v>
+        <v>8.3812686601483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.58890761494586</v>
+        <v>1.73063481982949</v>
       </c>
       <c r="B7" t="n">
-        <v>7.64653992185679</v>
+        <v>5.18206144758845</v>
       </c>
       <c r="C7" t="n">
-        <v>40.1827563296551</v>
+        <v>29.3073116135041</v>
       </c>
       <c r="D7" t="n">
-        <v>61.5739334360186</v>
+        <v>46.3999983273906</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0641229168924</v>
+        <v>20.6648454960343</v>
       </c>
       <c r="F7" t="n">
-        <v>20.1978079761682</v>
+        <v>15.5158522880897</v>
       </c>
       <c r="G7" t="n">
-        <v>17.2437093482789</v>
+        <v>13.2885751748121</v>
       </c>
       <c r="H7" t="n">
-        <v>15.5952842087807</v>
+        <v>12.0402162847923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.34775440577799</v>
+        <v>-2.02611191049868</v>
       </c>
       <c r="B8" t="n">
-        <v>5.17887473734871</v>
+        <v>-4.37708627073973</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8980977308696</v>
+        <v>-16.8886090353882</v>
       </c>
       <c r="D8" t="n">
-        <v>39.042028145095</v>
+        <v>-21.2190505702078</v>
       </c>
       <c r="E8" t="n">
-        <v>17.1922054351936</v>
+        <v>-8.34948756543137</v>
       </c>
       <c r="F8" t="n">
-        <v>12.8953031003487</v>
+        <v>-5.84016435955013</v>
       </c>
       <c r="G8" t="n">
-        <v>11.0607113013411</v>
+        <v>-4.78786240022595</v>
       </c>
       <c r="H8" t="n">
-        <v>10.0407643113911</v>
+        <v>-4.21556566430103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.74411079146117</v>
+        <v>-1.477575064538</v>
       </c>
       <c r="B9" t="n">
-        <v>6.80562314393281</v>
+        <v>-2.17933334473715</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7934702403865</v>
+        <v>-6.65009045039722</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4880689821434</v>
+        <v>-6.58110980352917</v>
       </c>
       <c r="E9" t="n">
-        <v>22.0573111841841</v>
+        <v>-2.13344221785622</v>
       </c>
       <c r="F9" t="n">
-        <v>16.4409368953995</v>
+        <v>-1.29932365812973</v>
       </c>
       <c r="G9" t="n">
-        <v>14.0339799202118</v>
+        <v>-0.969557252346727</v>
       </c>
       <c r="H9" t="n">
-        <v>12.6928241798548</v>
+        <v>-0.801442467725144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.72800028348373</v>
+        <v>-0.21018889104265</v>
       </c>
       <c r="B10" t="n">
-        <v>10.8542779030561</v>
+        <v>2.78473249843395</v>
       </c>
       <c r="C10" t="n">
-        <v>53.0927238976282</v>
+        <v>16.6579681853826</v>
       </c>
       <c r="D10" t="n">
-        <v>78.193325957022</v>
+        <v>26.7443439435264</v>
       </c>
       <c r="E10" t="n">
-        <v>33.7982384569025</v>
+        <v>11.9993125077388</v>
       </c>
       <c r="F10" t="n">
-        <v>25.0070048777512</v>
+        <v>9.02673488459172</v>
       </c>
       <c r="G10" t="n">
-        <v>21.2391484303369</v>
+        <v>7.72647107300767</v>
       </c>
       <c r="H10" t="n">
-        <v>19.1435018864086</v>
+        <v>6.99075699948443</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.58024977708317</v>
+        <v>0.624072511860728</v>
       </c>
       <c r="B2" t="n">
-        <v>5.21508544202618</v>
+        <v>2.53296247286362</v>
       </c>
       <c r="C2" t="n">
-        <v>27.045960202586</v>
+        <v>14.9898690460281</v>
       </c>
       <c r="D2" t="n">
-        <v>41.322188703549</v>
+        <v>24.2535902202996</v>
       </c>
       <c r="E2" t="n">
-        <v>18.206805781685</v>
+        <v>10.962508109676</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6233841572661</v>
+        <v>8.30912566728942</v>
       </c>
       <c r="G2" t="n">
-        <v>11.654631971812</v>
+        <v>7.1600204685312</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5566749838661</v>
+        <v>6.51433855470709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87458388365734</v>
+        <v>1.04485118043946</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11764779227938</v>
+        <v>3.79132754650872</v>
       </c>
       <c r="C3" t="n">
-        <v>31.5660210842619</v>
+        <v>21.1306284506649</v>
       </c>
       <c r="D3" t="n">
-        <v>47.9733100153726</v>
+        <v>33.2396363507876</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0476159437081</v>
+        <v>14.8045112183921</v>
       </c>
       <c r="F3" t="n">
-        <v>15.7025472721343</v>
+        <v>11.1266823663363</v>
       </c>
       <c r="G3" t="n">
-        <v>13.4058987736671</v>
+        <v>9.53762722966159</v>
       </c>
       <c r="H3" t="n">
-        <v>12.1252172324093</v>
+        <v>8.64715603380211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.30956684114111</v>
+        <v>1.72384226829559</v>
       </c>
       <c r="B4" t="n">
-        <v>7.37675393607575</v>
+        <v>5.72807230486329</v>
       </c>
       <c r="C4" t="n">
-        <v>37.9739847669755</v>
+        <v>30.6293941619754</v>
       </c>
       <c r="D4" t="n">
-        <v>57.5564449374741</v>
+        <v>47.239647768376</v>
       </c>
       <c r="E4" t="n">
-        <v>25.1840385713602</v>
+        <v>20.8226206829441</v>
       </c>
       <c r="F4" t="n">
-        <v>18.7514050391122</v>
+        <v>15.5579025828822</v>
       </c>
       <c r="G4" t="n">
-        <v>15.986795475282</v>
+        <v>13.2883272977323</v>
       </c>
       <c r="H4" t="n">
-        <v>14.4454982211829</v>
+        <v>12.0197427252526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.19757710925713</v>
+        <v>0.242355586556457</v>
       </c>
       <c r="B5" t="n">
-        <v>3.74650323611212</v>
+        <v>0.980760452484487</v>
       </c>
       <c r="C5" t="n">
-        <v>19.7049829324461</v>
+        <v>7.42888840473825</v>
       </c>
       <c r="D5" t="n">
-        <v>30.25714198788</v>
+        <v>13.0449921544904</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3346515718543</v>
+        <v>6.06197821365959</v>
       </c>
       <c r="F5" t="n">
-        <v>9.96909675504868</v>
+        <v>4.64493931423351</v>
       </c>
       <c r="G5" t="n">
-        <v>8.52031771524665</v>
+        <v>4.02184001878382</v>
       </c>
       <c r="H5" t="n">
-        <v>7.71143771837577</v>
+        <v>3.66774467138117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.42662228222648</v>
+        <v>0.596606026216594</v>
       </c>
       <c r="B6" t="n">
-        <v>4.37025588474625</v>
+        <v>1.97855656788045</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8942700351422</v>
+        <v>12.2900779894822</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0206323525704</v>
+        <v>20.1818844987274</v>
       </c>
       <c r="E6" t="n">
-        <v>15.3893701420336</v>
+        <v>9.12539194870899</v>
       </c>
       <c r="F6" t="n">
-        <v>11.4852287065956</v>
+        <v>6.90100913546558</v>
       </c>
       <c r="G6" t="n">
-        <v>9.80608207503908</v>
+        <v>5.93321140008527</v>
       </c>
       <c r="H6" t="n">
-        <v>8.86946169431588</v>
+        <v>5.38825830287567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.7680559918523</v>
+        <v>1.18191133791066</v>
       </c>
       <c r="B7" t="n">
-        <v>5.22209083388223</v>
+        <v>3.53901187499391</v>
       </c>
       <c r="C7" t="n">
-        <v>27.4422164343138</v>
+        <v>20.014993043474</v>
       </c>
       <c r="D7" t="n">
-        <v>42.0510030272918</v>
+        <v>31.6881894862034</v>
       </c>
       <c r="E7" t="n">
-        <v>18.4830406505021</v>
+        <v>14.1127492109175</v>
       </c>
       <c r="F7" t="n">
-        <v>13.7937928755689</v>
+        <v>10.5963207988887</v>
       </c>
       <c r="G7" t="n">
-        <v>11.7763351071226</v>
+        <v>9.07523498535405</v>
       </c>
       <c r="H7" t="n">
-        <v>10.6505676489931</v>
+        <v>8.22268682846364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.742535145715521</v>
+        <v>-1.11627110714555</v>
       </c>
       <c r="B8" t="n">
-        <v>2.85326205668744</v>
+        <v>-2.41152273583331</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2683620175186</v>
+        <v>-9.30465203249364</v>
       </c>
       <c r="D8" t="n">
-        <v>21.5099115487685</v>
+        <v>-11.6904762021529</v>
       </c>
       <c r="E8" t="n">
-        <v>9.47191618388637</v>
+        <v>-4.60008733005677</v>
       </c>
       <c r="F8" t="n">
-        <v>7.10457018401359</v>
+        <v>-3.21759459670836</v>
       </c>
       <c r="G8" t="n">
-        <v>6.09381564077894</v>
+        <v>-2.63783675258359</v>
       </c>
       <c r="H8" t="n">
-        <v>5.53188352350461</v>
+        <v>-2.32253417343363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.01100238816356</v>
+        <v>-0.856500588295399</v>
       </c>
       <c r="B9" t="n">
-        <v>3.94499092898393</v>
+        <v>-1.26328626995529</v>
       </c>
       <c r="C9" t="n">
-        <v>19.5889385494498</v>
+        <v>-3.85483385560772</v>
       </c>
       <c r="D9" t="n">
-        <v>29.2662361614945</v>
+        <v>-3.81484809377304</v>
       </c>
       <c r="E9" t="n">
-        <v>12.7858817185545</v>
+        <v>-1.23668472657898</v>
       </c>
       <c r="F9" t="n">
-        <v>9.53025836791594</v>
+        <v>-0.753174240878392</v>
       </c>
       <c r="G9" t="n">
-        <v>8.13502633217869</v>
+        <v>-0.562019742313869</v>
       </c>
       <c r="H9" t="n">
-        <v>7.35760343964312</v>
+        <v>-0.464569253749646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.73802674286672</v>
+        <v>-0.133912711042356</v>
       </c>
       <c r="B10" t="n">
-        <v>6.91533112523273</v>
+        <v>1.77417120640014</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8257200867578</v>
+        <v>10.6128999924609</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8174770911122</v>
+        <v>17.0389956612889</v>
       </c>
       <c r="E10" t="n">
-        <v>21.5330777843129</v>
+        <v>7.64484012730105</v>
       </c>
       <c r="F10" t="n">
-        <v>15.9321256305101</v>
+        <v>5.75099156886941</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5315997550047</v>
+        <v>4.92258502837267</v>
       </c>
       <c r="H10" t="n">
-        <v>12.1964496969217</v>
+        <v>4.45385680182943</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.349959830495925</v>
+        <v>0.138206196030016</v>
       </c>
       <c r="B2" t="n">
-        <v>1.15492528066162</v>
+        <v>0.560946206423186</v>
       </c>
       <c r="C2" t="n">
-        <v>5.9895592363677</v>
+        <v>3.31963472267461</v>
       </c>
       <c r="D2" t="n">
-        <v>9.15115215589965</v>
+        <v>5.37116501802672</v>
       </c>
       <c r="E2" t="n">
-        <v>4.03205288026777</v>
+        <v>2.42774119351798</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0170149552293</v>
+        <v>1.8401269547788</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58101794317358</v>
+        <v>1.58564777913754</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3378659763354</v>
+        <v>1.44265599619722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.321302815896303</v>
+        <v>0.17908701200012</v>
       </c>
       <c r="B3" t="n">
-        <v>1.04856201926062</v>
+        <v>0.649831798565245</v>
       </c>
       <c r="C3" t="n">
-        <v>5.41040150266721</v>
+        <v>3.62178000250972</v>
       </c>
       <c r="D3" t="n">
-        <v>8.22260328288571</v>
+        <v>5.69725838997417</v>
       </c>
       <c r="E3" t="n">
-        <v>3.60755169697889</v>
+        <v>2.53748641706944</v>
       </c>
       <c r="F3" t="n">
-        <v>2.69140938384585</v>
+        <v>1.90710824255708</v>
       </c>
       <c r="G3" t="n">
-        <v>2.29776488699792</v>
+        <v>1.63474492263355</v>
       </c>
       <c r="H3" t="n">
-        <v>2.07825665956682</v>
+        <v>1.48211856902061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.281511728099804</v>
+        <v>0.210118108415347</v>
       </c>
       <c r="B4" t="n">
-        <v>0.899148148180761</v>
+        <v>0.698191325099723</v>
       </c>
       <c r="C4" t="n">
-        <v>4.62862640914309</v>
+        <v>3.73339863025031</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0155208279766</v>
+        <v>5.75801255941615</v>
       </c>
       <c r="E4" t="n">
-        <v>3.06966747723695</v>
+        <v>2.53805684581361</v>
       </c>
       <c r="F4" t="n">
-        <v>2.28559760333749</v>
+        <v>1.89634348904648</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94862098851453</v>
+        <v>1.6197063079119</v>
       </c>
       <c r="H4" t="n">
-        <v>1.76075318326731</v>
+        <v>1.46507928916623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.27261191535639</v>
+        <v>0.0551689074029316</v>
       </c>
       <c r="B5" t="n">
-        <v>0.852839800619593</v>
+        <v>0.223256593158704</v>
       </c>
       <c r="C5" t="n">
-        <v>4.48556764967836</v>
+        <v>1.69108400730941</v>
       </c>
       <c r="D5" t="n">
-        <v>6.88762115338261</v>
+        <v>2.9695125846641</v>
       </c>
       <c r="E5" t="n">
-        <v>3.03544955687091</v>
+        <v>1.379925750835</v>
       </c>
       <c r="F5" t="n">
-        <v>2.26932741095295</v>
+        <v>1.05735638513738</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93953283996818</v>
+        <v>0.91551642253562</v>
       </c>
       <c r="H5" t="n">
-        <v>1.75540246244517</v>
+        <v>0.834911499371966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.250556978551849</v>
+        <v>0.10478162662745</v>
       </c>
       <c r="B6" t="n">
-        <v>0.767545918511474</v>
+        <v>0.347492929080258</v>
       </c>
       <c r="C6" t="n">
-        <v>4.02090952708441</v>
+        <v>2.15850042830214</v>
       </c>
       <c r="D6" t="n">
-        <v>6.15065665141643</v>
+        <v>3.54453457266327</v>
       </c>
       <c r="E6" t="n">
-        <v>2.70282760380427</v>
+        <v>1.60268815597184</v>
       </c>
       <c r="F6" t="n">
-        <v>2.01714513964441</v>
+        <v>1.21202088281029</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72223743226463</v>
+        <v>1.04204703658116</v>
       </c>
       <c r="H6" t="n">
-        <v>1.55773924969185</v>
+        <v>0.946337188788641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.220368523649049</v>
+        <v>0.147312108790502</v>
       </c>
       <c r="B7" t="n">
-        <v>0.650875567700911</v>
+        <v>0.441098486508799</v>
       </c>
       <c r="C7" t="n">
-        <v>3.42036719943009</v>
+        <v>2.49464637328342</v>
       </c>
       <c r="D7" t="n">
-        <v>5.24119004024175</v>
+        <v>3.94958053724882</v>
       </c>
       <c r="E7" t="n">
-        <v>2.3037055384368</v>
+        <v>1.75899729565747</v>
       </c>
       <c r="F7" t="n">
-        <v>1.71924293434019</v>
+        <v>1.32071358674363</v>
       </c>
       <c r="G7" t="n">
-        <v>1.46778925187448</v>
+        <v>1.13112715021853</v>
       </c>
       <c r="H7" t="n">
-        <v>1.32747485353903</v>
+        <v>1.02486650036386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0692163099418876</v>
+        <v>-0.104054558733253</v>
       </c>
       <c r="B8" t="n">
-        <v>0.265970266862988</v>
+        <v>-0.224793002834233</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33004258918405</v>
+        <v>-0.867344371102987</v>
       </c>
       <c r="D8" t="n">
-        <v>2.00507237020744</v>
+        <v>-1.08974185106988</v>
       </c>
       <c r="E8" t="n">
-        <v>0.882936100884087</v>
+        <v>-0.428802693359574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.662261085819333</v>
+        <v>-0.299931964376583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.568042380962898</v>
+        <v>-0.245889137095308</v>
       </c>
       <c r="H8" t="n">
-        <v>0.515661200327898</v>
+        <v>-0.216497826569676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0628371055694247</v>
+        <v>-0.0532343133083531</v>
       </c>
       <c r="B9" t="n">
-        <v>0.245194090911367</v>
+        <v>-0.0785173740823476</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21751660929371</v>
+        <v>-0.239590533883315</v>
       </c>
       <c r="D9" t="n">
-        <v>1.81899231181838</v>
+        <v>-0.237105287985683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.794684373403284</v>
+        <v>-0.0768640011437504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.592336732513971</v>
+        <v>-0.0468122428199349</v>
       </c>
       <c r="G9" t="n">
-        <v>0.505618497473283</v>
+        <v>-0.0349313654382426</v>
       </c>
       <c r="H9" t="n">
-        <v>0.457299121631768</v>
+        <v>-0.0288744987983674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0552254815507699</v>
+        <v>-0.00425505187617838</v>
       </c>
       <c r="B10" t="n">
-        <v>0.219733380422036</v>
+        <v>0.0563739652620936</v>
       </c>
       <c r="C10" t="n">
-        <v>1.07480606282938</v>
+        <v>0.337222954214787</v>
       </c>
       <c r="D10" t="n">
-        <v>1.58294121381773</v>
+        <v>0.541410967580446</v>
       </c>
       <c r="E10" t="n">
-        <v>0.684209604247762</v>
+        <v>0.242913395401779</v>
       </c>
       <c r="F10" t="n">
-        <v>0.506240375001962</v>
+        <v>0.18273670418982</v>
       </c>
       <c r="G10" t="n">
-        <v>0.429964104804181</v>
+        <v>0.15641423803301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.387539956152388</v>
+        <v>0.141520484450949</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.127713318196443</v>
+        <v>0.050436565434635</v>
       </c>
       <c r="B2" t="n">
-        <v>0.421475058018042</v>
+        <v>0.204710069868565</v>
       </c>
       <c r="C2" t="n">
-        <v>2.18581225029934</v>
+        <v>1.21145779797673</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33959473432791</v>
+        <v>1.96013727078554</v>
       </c>
       <c r="E2" t="n">
-        <v>1.47144559920719</v>
+        <v>0.885972778952941</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1010206240945</v>
+        <v>0.671530555276841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.941909148201782</v>
+        <v>0.578661668333488</v>
       </c>
       <c r="H2" t="n">
-        <v>0.853173979748621</v>
+        <v>0.526478664792038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.117023092659417</v>
+        <v>0.0652260576706302</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381901322578771</v>
+        <v>0.236678058872286</v>
       </c>
       <c r="C3" t="n">
-        <v>1.97054580615818</v>
+        <v>1.31910420904156</v>
       </c>
       <c r="D3" t="n">
-        <v>2.99479001822789</v>
+        <v>2.07502319771067</v>
       </c>
       <c r="E3" t="n">
-        <v>1.31392205614982</v>
+        <v>0.924188937710914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.980249889287825</v>
+        <v>0.694596167661111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.836878919129967</v>
+        <v>0.595397541170627</v>
       </c>
       <c r="H3" t="n">
-        <v>0.756930875205992</v>
+        <v>0.539808834699782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.102158555729169</v>
+        <v>0.0762503311430301</v>
       </c>
       <c r="B4" t="n">
-        <v>0.326294314005054</v>
+        <v>0.253368546583377</v>
       </c>
       <c r="C4" t="n">
-        <v>1.67969481115296</v>
+        <v>1.3548231706084</v>
       </c>
       <c r="D4" t="n">
-        <v>2.54588141073789</v>
+        <v>2.08954081917263</v>
       </c>
       <c r="E4" t="n">
-        <v>1.11395996948358</v>
+        <v>0.921042343340394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8294267230395</v>
+        <v>0.688169240106112</v>
       </c>
       <c r="G4" t="n">
-        <v>0.707140363898494</v>
+        <v>0.587779621966728</v>
       </c>
       <c r="H4" t="n">
-        <v>0.638964505714494</v>
+        <v>0.53166660309398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0986230698241061</v>
+        <v>0.0199585076822704</v>
       </c>
       <c r="B5" t="n">
-        <v>0.308532659312872</v>
+        <v>0.0807677483465756</v>
       </c>
       <c r="C5" t="n">
-        <v>1.62274804069605</v>
+        <v>0.611785056839028</v>
       </c>
       <c r="D5" t="n">
-        <v>2.49174120303587</v>
+        <v>1.07428336944856</v>
       </c>
       <c r="E5" t="n">
-        <v>1.09813745009445</v>
+        <v>0.499217040820705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.820976718539914</v>
+        <v>0.382520817052482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.701666625438077</v>
+        <v>0.331207239957972</v>
       </c>
       <c r="H5" t="n">
-        <v>0.635053605037074</v>
+        <v>0.302046720855411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0905306365584804</v>
+        <v>0.0378594418444946</v>
       </c>
       <c r="B6" t="n">
-        <v>0.27732781977305</v>
+        <v>0.125555297844944</v>
       </c>
       <c r="C6" t="n">
-        <v>1.45282522616181</v>
+        <v>0.779904111692933</v>
       </c>
       <c r="D6" t="n">
-        <v>2.2223402641733</v>
+        <v>1.28070258917312</v>
       </c>
       <c r="E6" t="n">
-        <v>0.976579079515032</v>
+        <v>0.579079376688935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.728829963461042</v>
+        <v>0.437924430112333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.622274629702621</v>
+        <v>0.376509894439235</v>
       </c>
       <c r="H6" t="n">
-        <v>0.562838547470551</v>
+        <v>0.341928245603703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0794689036081732</v>
+        <v>0.0531234296983031</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234717585315918</v>
+        <v>0.159068148779287</v>
       </c>
       <c r="C7" t="n">
-        <v>1.23344671360119</v>
+        <v>0.89961492182368</v>
       </c>
       <c r="D7" t="n">
-        <v>1.89006859601877</v>
+        <v>1.42429068276193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.830758178818695</v>
+        <v>0.634326464691746</v>
       </c>
       <c r="F7" t="n">
-        <v>0.619990317880876</v>
+        <v>0.476273375983962</v>
       </c>
       <c r="G7" t="n">
-        <v>0.529311539791809</v>
+        <v>0.407905053683884</v>
       </c>
       <c r="H7" t="n">
-        <v>0.478711611945866</v>
+        <v>0.369585527824145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0242912144562045</v>
+        <v>-0.0365175722811186</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0933413063592539</v>
+        <v>-0.0788902939882963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.466773652003128</v>
+        <v>-0.304391380348554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.703672920238184</v>
+        <v>-0.382440974222177</v>
       </c>
       <c r="E8" t="n">
-        <v>0.309863241708599</v>
+        <v>-0.150486759443557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.232418140683065</v>
+        <v>-0.105260041673114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.199352425862743</v>
+        <v>-0.0862939062577583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.180969439347827</v>
+        <v>-0.0759791317815338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.022043637473601</v>
+        <v>-0.0186749197483154</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0860155731512448</v>
+        <v>-0.0275443707020866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.427112205601297</v>
+        <v>-0.0840498113840586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.638113527439468</v>
+        <v>-0.0831779720607207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278780094571408</v>
+        <v>-0.0269643574545504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.207795315769426</v>
+        <v>-0.016422018498429</v>
       </c>
       <c r="G9" t="n">
-        <v>0.177374033339804</v>
+        <v>-0.0122541347059303</v>
       </c>
       <c r="H9" t="n">
-        <v>0.160423303443051</v>
+        <v>-0.0101293491795212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0193571145367092</v>
+        <v>-0.00149144062150195</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0770188705092127</v>
+        <v>0.0197596702070152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.376730876376537</v>
+        <v>0.118200206966816</v>
       </c>
       <c r="D10" t="n">
-        <v>0.554837613368357</v>
+        <v>0.189770262143403</v>
       </c>
       <c r="E10" t="n">
-        <v>0.239822692435279</v>
+        <v>0.085143710570825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.177442597997283</v>
+        <v>0.0640511447566324</v>
       </c>
       <c r="G10" t="n">
-        <v>0.150706959715993</v>
+        <v>0.0548248423690723</v>
       </c>
       <c r="H10" t="n">
-        <v>0.135836847559158</v>
+        <v>0.0496044244410831</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.4343003477512</v>
+        <v>5.30547618781362</v>
       </c>
       <c r="B2" t="n">
-        <v>44.3354115174649</v>
+        <v>21.5336708940042</v>
       </c>
       <c r="C2" t="n">
-        <v>229.927925207828</v>
+        <v>127.434539689988</v>
       </c>
       <c r="D2" t="n">
-        <v>351.29553702238</v>
+        <v>206.188933076266</v>
       </c>
       <c r="E2" t="n">
-        <v>154.782934186395</v>
+        <v>93.1964228983371</v>
       </c>
       <c r="F2" t="n">
-        <v>115.817535414767</v>
+        <v>70.6390163507042</v>
       </c>
       <c r="G2" t="n">
-        <v>99.0804293235384</v>
+        <v>60.8700389427309</v>
       </c>
       <c r="H2" t="n">
-        <v>89.746282178646</v>
+        <v>55.3808530651446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.382424251802</v>
+        <v>8.57381965012865</v>
       </c>
       <c r="B3" t="n">
-        <v>50.2000761792224</v>
+        <v>31.1108024060026</v>
       </c>
       <c r="C3" t="n">
-        <v>259.023846568074</v>
+        <v>173.393303105309</v>
       </c>
       <c r="D3" t="n">
-        <v>393.658461407413</v>
+        <v>272.757166420244</v>
       </c>
       <c r="E3" t="n">
-        <v>172.712120677919</v>
+        <v>121.482572418987</v>
       </c>
       <c r="F3" t="n">
-        <v>128.851659336093</v>
+        <v>91.3031154093259</v>
       </c>
       <c r="G3" t="n">
-        <v>110.005865414212</v>
+        <v>78.2636774386198</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4968735409624</v>
+        <v>70.9566660863213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.4201294137748</v>
+        <v>10.0166775506839</v>
       </c>
       <c r="B4" t="n">
-        <v>42.8638785040735</v>
+        <v>33.2839345687628</v>
       </c>
       <c r="C4" t="n">
-        <v>220.654271983631</v>
+        <v>177.977283963835</v>
       </c>
       <c r="D4" t="n">
-        <v>334.441474435125</v>
+        <v>274.493976627893</v>
       </c>
       <c r="E4" t="n">
-        <v>146.336122760649</v>
+        <v>120.993365215179</v>
       </c>
       <c r="F4" t="n">
-        <v>108.95821581447</v>
+        <v>90.4018287541845</v>
       </c>
       <c r="G4" t="n">
-        <v>92.8939835678592</v>
+        <v>77.214077051805</v>
       </c>
       <c r="H4" t="n">
-        <v>83.9380147486641</v>
+        <v>69.8427514717307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25.4781050985806</v>
+        <v>5.15604469873662</v>
       </c>
       <c r="B5" t="n">
-        <v>79.7057679743461</v>
+        <v>20.865393711835</v>
       </c>
       <c r="C5" t="n">
-        <v>419.217787512675</v>
+        <v>158.047442689479</v>
       </c>
       <c r="D5" t="n">
-        <v>643.711905973283</v>
+        <v>277.528418465207</v>
       </c>
       <c r="E5" t="n">
-        <v>283.690838422423</v>
+        <v>128.966825467072</v>
       </c>
       <c r="F5" t="n">
-        <v>212.089637401807</v>
+        <v>98.8197345371611</v>
       </c>
       <c r="G5" t="n">
-        <v>181.267284206033</v>
+        <v>85.5634780392671</v>
       </c>
       <c r="H5" t="n">
-        <v>164.058597255429</v>
+        <v>78.0302023893683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23.4051007201025</v>
+        <v>9.7878915167559</v>
       </c>
       <c r="B6" t="n">
-        <v>71.6982206358589</v>
+        <v>32.4601096790599</v>
       </c>
       <c r="C6" t="n">
-        <v>375.602360037063</v>
+        <v>201.630464339039</v>
       </c>
       <c r="D6" t="n">
-        <v>574.546912455604</v>
+        <v>331.103085448095</v>
       </c>
       <c r="E6" t="n">
-        <v>252.477311395346</v>
+        <v>149.71076810648</v>
       </c>
       <c r="F6" t="n">
-        <v>188.426143359934</v>
+        <v>113.217644150239</v>
       </c>
       <c r="G6" t="n">
-        <v>160.878139571527</v>
+        <v>97.3399982200829</v>
       </c>
       <c r="H6" t="n">
-        <v>145.511987913559</v>
+        <v>88.3995223233959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.5324519094496</v>
+        <v>13.7255481832677</v>
       </c>
       <c r="B7" t="n">
-        <v>60.6441930615182</v>
+        <v>41.0985802854336</v>
       </c>
       <c r="C7" t="n">
-        <v>318.686733804146</v>
+        <v>232.434314312954</v>
       </c>
       <c r="D7" t="n">
-        <v>488.338718559157</v>
+        <v>367.995261304685</v>
       </c>
       <c r="E7" t="n">
-        <v>214.643735857739</v>
+        <v>163.89149767803</v>
       </c>
       <c r="F7" t="n">
-        <v>160.187454566873</v>
+        <v>123.055179373787</v>
       </c>
       <c r="G7" t="n">
-        <v>136.758697332453</v>
+        <v>105.390794614215</v>
       </c>
       <c r="H7" t="n">
-        <v>123.68514858638</v>
+        <v>95.4901443449304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.41201969705432</v>
+        <v>-8.13602056950835</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7962014198937</v>
+        <v>-17.5765532736471</v>
       </c>
       <c r="C8" t="n">
-        <v>103.9959613078</v>
+        <v>-67.817611549642</v>
       </c>
       <c r="D8" t="n">
-        <v>156.7765049985</v>
+        <v>-85.2068590140992</v>
       </c>
       <c r="E8" t="n">
-        <v>69.0367280953999</v>
+        <v>-33.5280604320045</v>
       </c>
       <c r="F8" t="n">
-        <v>51.7821600726187</v>
+        <v>-23.4516647932416</v>
       </c>
       <c r="G8" t="n">
-        <v>44.415204409393</v>
+        <v>-19.2260589212105</v>
       </c>
       <c r="H8" t="n">
-        <v>40.3195226027554</v>
+        <v>-16.9279538702404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.37189241369267</v>
+        <v>-6.24531678965397</v>
       </c>
       <c r="B9" t="n">
-        <v>28.7655588571746</v>
+        <v>-9.21146238509068</v>
       </c>
       <c r="C9" t="n">
-        <v>142.836010256405</v>
+        <v>-28.1081635304731</v>
       </c>
       <c r="D9" t="n">
-        <v>213.399638677565</v>
+        <v>-27.8166006837618</v>
       </c>
       <c r="E9" t="n">
-        <v>93.2303875311267</v>
+        <v>-9.01749279797176</v>
       </c>
       <c r="F9" t="n">
-        <v>69.4914672660539</v>
+        <v>-5.49189550640495</v>
       </c>
       <c r="G9" t="n">
-        <v>59.3179003388031</v>
+        <v>-4.09806062103864</v>
       </c>
       <c r="H9" t="n">
-        <v>53.6491917473979</v>
+        <v>-3.38748414192451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.31995906038421</v>
+        <v>-0.486944665797731</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1461088155553</v>
+        <v>6.45139059947204</v>
       </c>
       <c r="C10" t="n">
-        <v>122.99992909414</v>
+        <v>38.5915198023214</v>
       </c>
       <c r="D10" t="n">
-        <v>181.150501279486</v>
+        <v>61.9586294925431</v>
       </c>
       <c r="E10" t="n">
-        <v>78.3003889896776</v>
+        <v>27.7988108215376</v>
       </c>
       <c r="F10" t="n">
-        <v>57.9337355670617</v>
+        <v>20.9122393663057</v>
       </c>
       <c r="G10" t="n">
-        <v>49.20474142537</v>
+        <v>17.8999178109662</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3497564596979</v>
+        <v>16.195488800102</v>
       </c>
     </row>
     <row r="11">
@@ -3481,80 +3481,80 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.959592881982227</v>
+        <v>0.378962584843829</v>
       </c>
       <c r="B2" t="n">
-        <v>3.16681510839034</v>
+        <v>1.53811934957172</v>
       </c>
       <c r="C2" t="n">
-        <v>16.4234232291305</v>
+        <v>9.10246712071343</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0925383587414</v>
+        <v>14.7277809340189</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0559238704567</v>
+        <v>6.6568873498812</v>
       </c>
       <c r="F2" t="n">
-        <v>8.27268110105476</v>
+        <v>5.04564402505028</v>
       </c>
       <c r="G2" t="n">
-        <v>7.07717352310986</v>
+        <v>4.34785992448076</v>
       </c>
       <c r="H2" t="n">
-        <v>6.41044872704612</v>
+        <v>3.95577521893888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.878995671531538</v>
+        <v>0.489932551435921</v>
       </c>
       <c r="B3" t="n">
-        <v>2.86857578166984</v>
+        <v>1.77776013748586</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8013626610327</v>
+        <v>9.90818874887477</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4947692232806</v>
+        <v>15.5861237954425</v>
       </c>
       <c r="E3" t="n">
-        <v>9.86926403873821</v>
+        <v>6.94186128108495</v>
       </c>
       <c r="F3" t="n">
-        <v>7.36295196206243</v>
+        <v>5.21732088053289</v>
       </c>
       <c r="G3" t="n">
-        <v>6.28604945224063</v>
+        <v>4.47221013934968</v>
       </c>
       <c r="H3" t="n">
-        <v>5.68553563091212</v>
+        <v>4.05466663350406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.766864537929987</v>
+        <v>0.57238157432479</v>
       </c>
       <c r="B4" t="n">
-        <v>2.44936448594705</v>
+        <v>1.90193911821501</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6088155419217</v>
+        <v>10.1701305122191</v>
       </c>
       <c r="D4" t="n">
-        <v>19.1109413962928</v>
+        <v>15.6853700930224</v>
       </c>
       <c r="E4" t="n">
-        <v>8.36206415775136</v>
+        <v>6.91390658372449</v>
       </c>
       <c r="F4" t="n">
-        <v>6.22618376082681</v>
+        <v>5.16581878595338</v>
       </c>
       <c r="G4" t="n">
-        <v>5.30822763244908</v>
+        <v>4.41223297438884</v>
       </c>
       <c r="H4" t="n">
-        <v>4.79645798563793</v>
+        <v>3.99101436981317</v>
       </c>
     </row>
     <row r="5">
@@ -3611,106 +3611,106 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.58664148312713</v>
+        <v>0.392158519521932</v>
       </c>
       <c r="B7" t="n">
-        <v>1.73269123032908</v>
+        <v>1.17424515101238</v>
       </c>
       <c r="C7" t="n">
-        <v>9.10533525154698</v>
+        <v>6.64098040894153</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9525348159759</v>
+        <v>10.514150322991</v>
       </c>
       <c r="E7" t="n">
-        <v>6.13267816736394</v>
+        <v>4.68261421937225</v>
       </c>
       <c r="F7" t="n">
-        <v>4.57678441619636</v>
+        <v>3.51586226782246</v>
       </c>
       <c r="G7" t="n">
-        <v>3.90739135235579</v>
+        <v>3.01116556040612</v>
       </c>
       <c r="H7" t="n">
-        <v>3.53386138818227</v>
+        <v>2.72828983842657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.231943701302327</v>
+        <v>0.348686595836071</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8912657751383</v>
+        <v>0.753280854584874</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.45696977033425</v>
+        <v>2.90646906641322</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.71899307136426</v>
+        <v>3.65172252917567</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.95871691837427</v>
+        <v>1.43691687565733</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.21923543168365</v>
+        <v>1.00507134828178</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.90350876040255</v>
+        <v>0.823973953766159</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.72797954011808</v>
+        <v>0.725483737296015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.210625497534076</v>
+        <v>0.178437622561541</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.821873110204984</v>
+        <v>0.263184639574018</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.0810288644687</v>
+        <v>0.803090386584942</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.09713253364469</v>
+        <v>0.794760019536049</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.66372535803218</v>
+        <v>0.257642651370621</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.98547049331582</v>
+        <v>0.156911300182998</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.69479715253722</v>
+        <v>0.117087446315389</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.53283404992565</v>
+        <v>0.0967852611978429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.18057025886812</v>
+        <v>0.013912704737078</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.718460251873005</v>
+        <v>-0.1843254456992</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.51428368840398</v>
+        <v>-1.10261485149489</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.17572860798528</v>
+        <v>-1.7702465569298</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.23715397113364</v>
+        <v>-0.794251737758215</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.65524958763033</v>
+        <v>-0.597492553323018</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.40584975501057</v>
+        <v>-0.511426223170461</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.26713589884851</v>
+        <v>-0.462728251431485</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
@@ -637,28 +637,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>-0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>-0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>-0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.390966668743157</v>
+        <v>0.825344513626299</v>
       </c>
       <c r="B5" t="n">
-        <v>1.58215724420104</v>
+        <v>2.75468158355382</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9842409796837</v>
+        <v>17.0289610275246</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0441079526493</v>
+        <v>28.0191480897315</v>
       </c>
       <c r="E5" t="n">
-        <v>9.77914914965652</v>
+        <v>12.7152360154725</v>
       </c>
       <c r="F5" t="n">
-        <v>7.49318996934679</v>
+        <v>9.64066982298104</v>
       </c>
       <c r="G5" t="n">
-        <v>6.48800969147676</v>
+        <v>8.30208948535114</v>
       </c>
       <c r="H5" t="n">
-        <v>5.91678506918312</v>
+        <v>7.5474229397583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.928002168588711</v>
+        <v>1.29019689198407</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0775833715798</v>
+        <v>4.04271214489651</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1168351058915</v>
+        <v>23.2965453472767</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3922953473932</v>
+        <v>37.1799667592074</v>
       </c>
       <c r="E6" t="n">
-        <v>14.194264129926</v>
+        <v>16.6311844739245</v>
       </c>
       <c r="F6" t="n">
-        <v>10.7343056585848</v>
+        <v>12.5168005552346</v>
       </c>
       <c r="G6" t="n">
-        <v>9.22892629980822</v>
+        <v>10.7347168190758</v>
       </c>
       <c r="H6" t="n">
-        <v>8.3812686601483</v>
+        <v>9.73480335753354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.73063481982949</v>
+        <v>1.97126002591345</v>
       </c>
       <c r="B7" t="n">
-        <v>5.18206144758845</v>
+        <v>5.81073115609056</v>
       </c>
       <c r="C7" t="n">
-        <v>29.3073116135041</v>
+        <v>32.0451265991552</v>
       </c>
       <c r="D7" t="n">
-        <v>46.3999983273906</v>
+        <v>50.1977115693302</v>
       </c>
       <c r="E7" t="n">
-        <v>20.6648454960343</v>
+        <v>22.2644701943318</v>
       </c>
       <c r="F7" t="n">
-        <v>15.5158522880897</v>
+        <v>16.6860181412177</v>
       </c>
       <c r="G7" t="n">
-        <v>13.2885751748121</v>
+        <v>14.2771296075851</v>
       </c>
       <c r="H7" t="n">
-        <v>12.0402162847923</v>
+        <v>12.9288317319724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.02611191049868</v>
+        <v>0.39670136451099</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.37708627073973</v>
+        <v>2.91679036435942</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.8886090353882</v>
+        <v>15.672851106001</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.2190505702078</v>
+        <v>24.3375669009463</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.34948756543137</v>
+        <v>10.8892969750523</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.84016435955013</v>
+        <v>8.24689696142529</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.78786240022595</v>
+        <v>7.11803233923321</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.21556566430103</v>
+        <v>6.48923409143046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.477575064538</v>
+        <v>0.840300346511976</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.17933334473715</v>
+        <v>4.64821006353596</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.65009045039722</v>
+        <v>24.0051478198349</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.58110980352917</v>
+        <v>36.4337385501843</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.13344221785622</v>
+        <v>16.0487468734423</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.29932365812973</v>
+        <v>12.0189907511366</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.969557252346727</v>
+        <v>10.2888448653593</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.801442467725144</v>
+        <v>9.32246191013414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.21018889104265</v>
+        <v>1.90425009629737</v>
       </c>
       <c r="B10" t="n">
-        <v>2.78473249843395</v>
+        <v>8.86878350333775</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6579681853826</v>
+        <v>44.1079887284426</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7443439435264</v>
+        <v>65.3855265820398</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9993125077388</v>
+        <v>28.3506482727097</v>
       </c>
       <c r="F10" t="n">
-        <v>9.02673488459172</v>
+        <v>21.0092342744719</v>
       </c>
       <c r="G10" t="n">
-        <v>7.72647107300767</v>
+        <v>17.858171654167</v>
       </c>
       <c r="H10" t="n">
-        <v>6.99075699948443</v>
+        <v>16.1030909120107</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.242355586556457</v>
+        <v>0.511621244731892</v>
       </c>
       <c r="B5" t="n">
-        <v>0.980760452484487</v>
+        <v>1.70759434072637</v>
       </c>
       <c r="C5" t="n">
-        <v>7.42888840473825</v>
+        <v>10.5560503444963</v>
       </c>
       <c r="D5" t="n">
-        <v>13.0449921544904</v>
+        <v>17.3687365522204</v>
       </c>
       <c r="E5" t="n">
-        <v>6.06197821365959</v>
+        <v>7.88202353065055</v>
       </c>
       <c r="F5" t="n">
-        <v>4.64493931423351</v>
+        <v>5.97613652656572</v>
       </c>
       <c r="G5" t="n">
-        <v>4.02184001878382</v>
+        <v>5.14636650058851</v>
       </c>
       <c r="H5" t="n">
-        <v>3.66774467138117</v>
+        <v>4.67855768737266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.596606026216594</v>
+        <v>0.829458450441147</v>
       </c>
       <c r="B6" t="n">
-        <v>1.97855656788045</v>
+        <v>2.59903102551178</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2900779894822</v>
+        <v>14.9771841216175</v>
       </c>
       <c r="D6" t="n">
-        <v>20.1818844987274</v>
+        <v>23.9027374869279</v>
       </c>
       <c r="E6" t="n">
-        <v>9.12539194870899</v>
+        <v>10.6920707904733</v>
       </c>
       <c r="F6" t="n">
-        <v>6.90100913546558</v>
+        <v>8.04696248884929</v>
       </c>
       <c r="G6" t="n">
-        <v>5.93321140008527</v>
+        <v>6.90127346763526</v>
       </c>
       <c r="H6" t="n">
-        <v>5.38825830287567</v>
+        <v>6.25843618013361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.18191133791066</v>
+        <v>1.3462427474022</v>
       </c>
       <c r="B7" t="n">
-        <v>3.53901187499391</v>
+        <v>3.96835251217861</v>
       </c>
       <c r="C7" t="n">
-        <v>20.014993043474</v>
+        <v>21.8847431118111</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6881894862034</v>
+        <v>34.2817813216111</v>
       </c>
       <c r="E7" t="n">
-        <v>14.1127492109175</v>
+        <v>15.2051891327642</v>
       </c>
       <c r="F7" t="n">
-        <v>10.5963207988887</v>
+        <v>11.3954681829591</v>
       </c>
       <c r="G7" t="n">
-        <v>9.07523498535405</v>
+        <v>9.75035354812013</v>
       </c>
       <c r="H7" t="n">
-        <v>8.22268682846364</v>
+        <v>8.82955354582708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.11627110714555</v>
+        <v>0.218559630923764</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.41152273583331</v>
+        <v>1.60698369742745</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.30465203249364</v>
+        <v>8.63483935194728</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.6904762021529</v>
+        <v>13.4085993024253</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.60008733005677</v>
+        <v>5.99937620789493</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.21759459670836</v>
+        <v>4.54356580894868</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.63783675258359</v>
+        <v>3.92162634198131</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.32253417343363</v>
+        <v>3.57519468013238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.856500588295399</v>
+        <v>0.487093859666192</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.26328626995529</v>
+        <v>2.69441109929936</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.85483385560772</v>
+        <v>13.914977129257</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.81484809377304</v>
+        <v>21.1194133218476</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.23668472657898</v>
+        <v>9.30291899776017</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.753174240878392</v>
+        <v>6.967004855543</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.562019742313869</v>
+        <v>5.96409745369908</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.464569253749646</v>
+        <v>5.40391774470556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.133912711042356</v>
+        <v>1.21321013509751</v>
       </c>
       <c r="B10" t="n">
-        <v>1.77417120640014</v>
+        <v>5.65035971543662</v>
       </c>
       <c r="C10" t="n">
-        <v>10.6128999924609</v>
+        <v>28.1014868100376</v>
       </c>
       <c r="D10" t="n">
-        <v>17.0389956612889</v>
+        <v>41.6575447165584</v>
       </c>
       <c r="E10" t="n">
-        <v>7.64484012730105</v>
+        <v>18.062382608206</v>
       </c>
       <c r="F10" t="n">
-        <v>5.75099156886941</v>
+        <v>13.385119949311</v>
       </c>
       <c r="G10" t="n">
-        <v>4.92258502837267</v>
+        <v>11.377557437058</v>
       </c>
       <c r="H10" t="n">
-        <v>4.45385680182943</v>
+        <v>10.259384068739</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0551689074029316</v>
+        <v>0.116463521543008</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223256593158704</v>
+        <v>0.388710305398129</v>
       </c>
       <c r="C5" t="n">
-        <v>1.69108400730941</v>
+        <v>2.40293930200176</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9695125846641</v>
+        <v>3.95375337606316</v>
       </c>
       <c r="E5" t="n">
-        <v>1.379925750835</v>
+        <v>1.79423397037679</v>
       </c>
       <c r="F5" t="n">
-        <v>1.05735638513738</v>
+        <v>1.36038507445166</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91551642253562</v>
+        <v>1.17149936985825</v>
       </c>
       <c r="H5" t="n">
-        <v>0.834911499371966</v>
+        <v>1.06500914421384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.10478162662745</v>
+        <v>0.145677384803274</v>
       </c>
       <c r="B6" t="n">
-        <v>0.347492929080258</v>
+        <v>0.456466556724763</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15850042830214</v>
+        <v>2.63043557322727</v>
       </c>
       <c r="D6" t="n">
-        <v>3.54453457266327</v>
+        <v>4.19802617585354</v>
       </c>
       <c r="E6" t="n">
-        <v>1.60268815597184</v>
+        <v>1.87784320005327</v>
       </c>
       <c r="F6" t="n">
-        <v>1.21202088281029</v>
+        <v>1.41328411370352</v>
       </c>
       <c r="G6" t="n">
-        <v>1.04204703658116</v>
+        <v>1.21206730734087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.946337188788641</v>
+        <v>1.09916610674732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.147312108790502</v>
+        <v>0.167794192087468</v>
       </c>
       <c r="B7" t="n">
-        <v>0.441098486508799</v>
+        <v>0.49461102389163</v>
       </c>
       <c r="C7" t="n">
-        <v>2.49464637328342</v>
+        <v>2.72768993301848</v>
       </c>
       <c r="D7" t="n">
-        <v>3.94958053724882</v>
+        <v>4.27284292619513</v>
       </c>
       <c r="E7" t="n">
-        <v>1.75899729565747</v>
+        <v>1.89515778710233</v>
       </c>
       <c r="F7" t="n">
-        <v>1.32071358674363</v>
+        <v>1.42031842393043</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13112715021853</v>
+        <v>1.21527317367617</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02486650036386</v>
+        <v>1.10050569005775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.104054558733253</v>
+        <v>0.0203732998257292</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.224793002834233</v>
+        <v>0.14979692518866</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.867344371102987</v>
+        <v>0.804906973537074</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.08974185106988</v>
+        <v>1.24989876985408</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.428802693359574</v>
+        <v>0.559239095226253</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.299931964376583</v>
+        <v>0.423533971540846</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.245889137095308</v>
+        <v>0.365559133367733</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.216497826569676</v>
+        <v>0.333266087821569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0532343133083531</v>
+        <v>0.0302744767375478</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0785173740823476</v>
+        <v>0.167466463656574</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.239590533883315</v>
+        <v>0.864861346624031</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.237105287985683</v>
+        <v>1.31264062281775</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0768640011437504</v>
+        <v>0.578206846996576</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0468122428199349</v>
+        <v>0.433022141921611</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0349313654382426</v>
+        <v>0.370688166231903</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0288744987983674</v>
+        <v>0.335871164883554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.00425505187617838</v>
+        <v>0.0385495299241047</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0563739652620936</v>
+        <v>0.179539145471013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.337222954214787</v>
+        <v>0.892919598473605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541410967580446</v>
+        <v>1.32366085656433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.242913395401779</v>
+        <v>0.573928900453588</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18273670418982</v>
+        <v>0.425309735796283</v>
       </c>
       <c r="G10" t="n">
-        <v>0.15641423803301</v>
+        <v>0.361519804520784</v>
       </c>
       <c r="H10" t="n">
-        <v>0.141520484450949</v>
+        <v>0.325990050461415</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0199585076822704</v>
+        <v>0.0421331180703586</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0807677483465756</v>
+        <v>0.140624093926754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.611785056839028</v>
+        <v>0.869313618425642</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07428336944856</v>
+        <v>1.43035308917077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.499217040820705</v>
+        <v>0.649101716298497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.382520817052482</v>
+        <v>0.492147791889145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.331207239957972</v>
+        <v>0.423814432327301</v>
       </c>
       <c r="H5" t="n">
-        <v>0.302046720855411</v>
+        <v>0.385289362923847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0378594418444946</v>
+        <v>0.0526357974726535</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125555297844944</v>
+        <v>0.164929383275585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.779904111692933</v>
+        <v>0.95042256754009</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28070258917312</v>
+        <v>1.5168205818324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.579079376688935</v>
+        <v>0.678497726307218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.437924430112333</v>
+        <v>0.51064436995951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.376509894439235</v>
+        <v>0.437941204110526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.341928245603703</v>
+        <v>0.397148017598518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0531234296983031</v>
+        <v>0.0605096420133312</v>
       </c>
       <c r="B7" t="n">
-        <v>0.159068148779287</v>
+        <v>0.178365744482553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.89961492182368</v>
+        <v>0.983654674318391</v>
       </c>
       <c r="D7" t="n">
-        <v>1.42429068276193</v>
+        <v>1.54086498839296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.634326464691746</v>
+        <v>0.683428418050137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.476273375983962</v>
+        <v>0.512192694561018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.407905053683884</v>
+        <v>0.438249642450181</v>
       </c>
       <c r="H7" t="n">
-        <v>0.369585527824145</v>
+        <v>0.396862397384502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0365175722811186</v>
+        <v>0.00714993613012369</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0788902939882963</v>
+        <v>0.0525706908919702</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.304391380348554</v>
+        <v>0.282479200753394</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.382440974222177</v>
+        <v>0.438647467519758</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.150486759443557</v>
+        <v>0.196262944468435</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.105260041673114</v>
+        <v>0.148637720514491</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0862939062577583</v>
+        <v>0.128291660051153</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0759791317815338</v>
+        <v>0.116958532129938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0186749197483154</v>
+        <v>0.0106204699254988</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0275443707020866</v>
+        <v>0.0587482504227208</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0840498113840586</v>
+        <v>0.30339860210218</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0831779720607207</v>
+        <v>0.460482286068181</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0269643574545504</v>
+        <v>0.202838466292252</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.016422018498429</v>
+        <v>0.151906791824078</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0122541347059303</v>
+        <v>0.130039655361625</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0101293491795212</v>
+        <v>0.117825640271561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.00149144062150195</v>
+        <v>0.0135120173717488</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0197596702070152</v>
+        <v>0.0629303666552973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118200206966816</v>
+        <v>0.31297774966138</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189770262143403</v>
+        <v>0.46395710981206</v>
       </c>
       <c r="E10" t="n">
-        <v>0.085143710570825</v>
+        <v>0.201168141047252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0640511447566324</v>
+        <v>0.149075554222513</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0548248423690723</v>
+        <v>0.126716509605519</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0496044244410831</v>
+        <v>0.114262955567135</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.15604469873662</v>
+        <v>10.8845933536853</v>
       </c>
       <c r="B5" t="n">
-        <v>20.865393711835</v>
+        <v>36.3285735360751</v>
       </c>
       <c r="C5" t="n">
-        <v>158.047442689479</v>
+        <v>224.576904504977</v>
       </c>
       <c r="D5" t="n">
-        <v>277.528418465207</v>
+        <v>369.514824462143</v>
       </c>
       <c r="E5" t="n">
-        <v>128.966825467072</v>
+        <v>167.687760855725</v>
       </c>
       <c r="F5" t="n">
-        <v>98.8197345371611</v>
+        <v>127.140568511498</v>
       </c>
       <c r="G5" t="n">
-        <v>85.5634780392671</v>
+        <v>109.487452260292</v>
       </c>
       <c r="H5" t="n">
-        <v>78.0302023893683</v>
+        <v>99.5349556594268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.7878915167559</v>
+        <v>13.6080578703826</v>
       </c>
       <c r="B6" t="n">
-        <v>32.4601096790599</v>
+        <v>42.6395856034424</v>
       </c>
       <c r="C6" t="n">
-        <v>201.630464339039</v>
+        <v>245.715006163297</v>
       </c>
       <c r="D6" t="n">
-        <v>331.103085448095</v>
+        <v>392.147231497471</v>
       </c>
       <c r="E6" t="n">
-        <v>149.71076810648</v>
+        <v>175.413630415851</v>
       </c>
       <c r="F6" t="n">
-        <v>113.217644150239</v>
+        <v>132.018103101873</v>
       </c>
       <c r="G6" t="n">
-        <v>97.3399982200829</v>
+        <v>113.221980771874</v>
       </c>
       <c r="H6" t="n">
-        <v>88.3995223233959</v>
+        <v>102.675621270793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.7255481832677</v>
+        <v>15.6339304845897</v>
       </c>
       <c r="B7" t="n">
-        <v>41.0985802854336</v>
+        <v>46.0845173973754</v>
       </c>
       <c r="C7" t="n">
-        <v>232.434314312954</v>
+        <v>254.147740549305</v>
       </c>
       <c r="D7" t="n">
-        <v>367.995261304685</v>
+        <v>398.114669218604</v>
       </c>
       <c r="E7" t="n">
-        <v>163.89149767803</v>
+        <v>176.57801341206</v>
       </c>
       <c r="F7" t="n">
-        <v>123.055179373787</v>
+        <v>132.33568593444</v>
       </c>
       <c r="G7" t="n">
-        <v>105.390794614215</v>
+        <v>113.230953233088</v>
       </c>
       <c r="H7" t="n">
-        <v>95.4901443449304</v>
+        <v>102.537693600798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.13602056950835</v>
+        <v>1.59298726042189</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.5765532736471</v>
+        <v>11.712613838557</v>
       </c>
       <c r="C8" t="n">
-        <v>-67.817611549642</v>
+        <v>62.9356346609111</v>
       </c>
       <c r="D8" t="n">
-        <v>-85.2068590140992</v>
+        <v>97.7295202164566</v>
       </c>
       <c r="E8" t="n">
-        <v>-33.5280604320045</v>
+        <v>43.7268759526243</v>
       </c>
       <c r="F8" t="n">
-        <v>-23.4516647932416</v>
+        <v>33.1160993453011</v>
       </c>
       <c r="G8" t="n">
-        <v>-19.2260589212105</v>
+        <v>28.583049744855</v>
       </c>
       <c r="H8" t="n">
-        <v>-16.9279538702404</v>
+        <v>26.0580581825998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.24531678965397</v>
+        <v>3.55172606006599</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.21146238509068</v>
+        <v>19.6467475990579</v>
       </c>
       <c r="C9" t="n">
-        <v>-28.1081635304731</v>
+        <v>101.463374900832</v>
       </c>
       <c r="D9" t="n">
-        <v>-27.8166006837618</v>
+        <v>153.995722138473</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.01749279797176</v>
+        <v>67.8337843586681</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.49189550640495</v>
+        <v>50.8010770716679</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.09806062103864</v>
+        <v>43.4882105998893</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.38748414192451</v>
+        <v>39.4035668884782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.486944665797731</v>
+        <v>4.41157675906225</v>
       </c>
       <c r="B10" t="n">
-        <v>6.45139059947204</v>
+        <v>20.546313354824</v>
       </c>
       <c r="C10" t="n">
-        <v>38.5915198023214</v>
+        <v>102.184990480888</v>
       </c>
       <c r="D10" t="n">
-        <v>61.9586294925431</v>
+        <v>151.478668694434</v>
       </c>
       <c r="E10" t="n">
-        <v>27.7988108215376</v>
+        <v>65.6799552051609</v>
       </c>
       <c r="F10" t="n">
-        <v>20.9122393663057</v>
+        <v>48.6720992327475</v>
       </c>
       <c r="G10" t="n">
-        <v>17.8999178109662</v>
+        <v>41.3720315320204</v>
       </c>
       <c r="H10" t="n">
-        <v>16.195488800102</v>
+        <v>37.3060354596402</v>
       </c>
     </row>
     <row r="11">
@@ -3611,106 +3611,106 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.392158519521932</v>
+        <v>0.446683728131131</v>
       </c>
       <c r="B7" t="n">
-        <v>1.17424515101238</v>
+        <v>1.31670049706786</v>
       </c>
       <c r="C7" t="n">
-        <v>6.64098040894153</v>
+        <v>7.26136401569439</v>
       </c>
       <c r="D7" t="n">
-        <v>10.514150322991</v>
+        <v>11.3747048348172</v>
       </c>
       <c r="E7" t="n">
-        <v>4.68261421937225</v>
+        <v>5.0450860974874</v>
       </c>
       <c r="F7" t="n">
-        <v>3.51586226782246</v>
+        <v>3.78101959812685</v>
       </c>
       <c r="G7" t="n">
-        <v>3.01116556040612</v>
+        <v>3.23517009237393</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72828983842657</v>
+        <v>2.92964838859421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.348686595836071</v>
+        <v>-0.0682708825895092</v>
       </c>
       <c r="B8" t="n">
-        <v>0.753280854584874</v>
+        <v>-0.501969164509584</v>
       </c>
       <c r="C8" t="n">
-        <v>2.90646906641322</v>
+        <v>-2.69724148546761</v>
       </c>
       <c r="D8" t="n">
-        <v>3.65172252917567</v>
+        <v>-4.1884080092767</v>
       </c>
       <c r="E8" t="n">
-        <v>1.43691687565733</v>
+        <v>-1.87400896939818</v>
       </c>
       <c r="F8" t="n">
-        <v>1.00507134828178</v>
+        <v>-1.4192614005129</v>
       </c>
       <c r="G8" t="n">
-        <v>0.823973953766159</v>
+        <v>-1.22498784620807</v>
       </c>
       <c r="H8" t="n">
-        <v>0.725483737296015</v>
+        <v>-1.11677392211142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.178437622561541</v>
+        <v>-0.101477887430457</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263184639574018</v>
+        <v>-0.561335645687366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.803090386584942</v>
+        <v>-2.8989535685952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.794760019536049</v>
+        <v>-4.39987777538491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.257642651370621</v>
+        <v>-1.93810812453337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156911300182998</v>
+        <v>-1.45145934490479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.117087446315389</v>
+        <v>-1.24252030285397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0967852611978429</v>
+        <v>-1.12581619681366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.013912704737078</v>
+        <v>-0.126045050258921</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1843254456992</v>
+        <v>-0.587037524423541</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.10261485149489</v>
+        <v>-2.9195711565968</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.7702465569298</v>
+        <v>-4.32796196269811</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.794251737758215</v>
+        <v>-1.87657014871888</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.597492553323018</v>
+        <v>-1.39063140664992</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.511426223170461</v>
+        <v>-1.18205804377201</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.462728251431485</v>
+        <v>-1.06588672741829</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>3.18428988032862</v>
@@ -490,39 +502,45 @@
         <v>3.44680666355969</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00510588111978564</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00510588111978564</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>3.02473799826815</v>
@@ -537,39 +555,45 @@
         <v>3.44595643991303</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00507927371812665</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00507927371812665</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.86046907493171</v>
@@ -584,39 +608,45 @@
         <v>3.44425725034699</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00506380996931241</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00506380996931241</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.97381313829504</v>
@@ -631,39 +661,45 @@
         <v>3.39878122096519</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00491159163910814</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00491159163910814</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.87941423301908</v>
@@ -678,39 +714,45 @@
         <v>3.40079137411323</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00492929379231808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00492929379231808</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.78588498883013</v>
@@ -725,39 +767,45 @@
         <v>3.39911981285783</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00488677660615302</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00488677660615302</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.71769335607235</v>
@@ -772,39 +820,45 @@
         <v>4.18402191451837</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00470651094178679</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00470651094178679</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.65346682070477</v>
@@ -819,39 +873,45 @@
         <v>4.18636721828211</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00470098163805704</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00470098163805704</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.58518668984707</v>
@@ -866,39 +926,45 @@
         <v>4.10428158655109</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00468780576126954</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00468780576126954</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.50236899017966</v>
@@ -913,33 +979,39 @@
         <v>0.724602542638191</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00444027905887741</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00444027905887741</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>2.72220412092149</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000665602060908222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000665602060908222</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>2.72135389727483</v>
       </c>
       <c r="E3" t="n">
+        <v>0.00063899465924924</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00063899465924924</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>2.7196547077088</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000623530910435</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000623530910435</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>2.67417867832699</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000471312580230731</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000471312580230731</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>2.67618883147504</v>
       </c>
       <c r="E6" t="n">
+        <v>0.00048901473344067</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00048901473344067</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>2.67451727021964</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000446497547275609</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000446497547275609</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>3.45941937188018</v>
       </c>
       <c r="E8" t="n">
+        <v>0.000266231882909381</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000266231882909381</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>3.46176467564392</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000260702579179631</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000260702579179631</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>3.3796790439129</v>
       </c>
       <c r="E10" t="n">
+        <v>0.000247526702392122</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000247526702392122</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>3.75682385961589</v>
       </c>
       <c r="E2" t="n">
+        <v>0.149900952638886</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.149900952638886</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0357142857142856</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>3.75565049408564</v>
       </c>
       <c r="E3" t="n">
+        <v>0.143908671229053</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.143908671229053</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0285714285714285</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>3.75330549877297</v>
       </c>
       <c r="E4" t="n">
+        <v>0.140426063805242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.140426063805242</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0285714285714285</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>3.69054553492267</v>
       </c>
       <c r="E5" t="n">
+        <v>0.106144810715993</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.106144810715993</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0142857142857142</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>3.69331968078853</v>
       </c>
       <c r="E6" t="n">
+        <v>0.110131531589887</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.110131531589887</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0142857142857142</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>3.69101281439345</v>
       </c>
       <c r="E7" t="n">
+        <v>0.100556190580619</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.100556190580619</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0142857142857142</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>4.77423024115378</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0599583673411486</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0599583673411486</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0214285714285714</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>4.77746691729793</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0587131069292617</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0587131069292617</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0142857142857142</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>4.66418325225287</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0557457536136706</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0557457536136706</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0142857142857142</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.30547618781362</v>
+        <v>1.2640432838234</v>
       </c>
       <c r="B2" t="n">
-        <v>21.5336708940042</v>
+        <v>5.13045221692845</v>
       </c>
       <c r="C2" t="n">
-        <v>127.434539689988</v>
+        <v>30.3616053149489</v>
       </c>
       <c r="D2" t="n">
-        <v>206.188933076266</v>
+        <v>49.1250411513341</v>
       </c>
       <c r="E2" t="n">
-        <v>93.1964228983371</v>
+        <v>22.2042863393862</v>
       </c>
       <c r="F2" t="n">
-        <v>70.6390163507042</v>
+        <v>16.8299264822063</v>
       </c>
       <c r="G2" t="n">
-        <v>60.8700389427309</v>
+        <v>14.5024426060681</v>
       </c>
       <c r="H2" t="n">
-        <v>55.3808530651446</v>
+        <v>13.1946300183575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.57381965012865</v>
+        <v>1.70223429641747</v>
       </c>
       <c r="B3" t="n">
-        <v>31.1108024060026</v>
+        <v>6.1766956858919</v>
       </c>
       <c r="C3" t="n">
-        <v>173.393303105309</v>
+        <v>34.4252666092105</v>
       </c>
       <c r="D3" t="n">
-        <v>272.757166420244</v>
+        <v>54.1528306193402</v>
       </c>
       <c r="E3" t="n">
-        <v>121.482572418987</v>
+        <v>24.1189819272109</v>
       </c>
       <c r="F3" t="n">
-        <v>91.3031154093259</v>
+        <v>18.1271942683311</v>
       </c>
       <c r="G3" t="n">
-        <v>78.2636774386198</v>
+        <v>15.5383622861456</v>
       </c>
       <c r="H3" t="n">
-        <v>70.9566660863213</v>
+        <v>14.0876383572829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.0166775506839</v>
+        <v>2.03801758311274</v>
       </c>
       <c r="B4" t="n">
-        <v>33.2839345687628</v>
+        <v>6.77203030077387</v>
       </c>
       <c r="C4" t="n">
-        <v>177.977283963835</v>
+        <v>36.2116911797946</v>
       </c>
       <c r="D4" t="n">
-        <v>274.493976627893</v>
+        <v>55.8492122757801</v>
       </c>
       <c r="E4" t="n">
-        <v>120.993365215179</v>
+        <v>24.6176044402749</v>
       </c>
       <c r="F4" t="n">
-        <v>90.4018287541845</v>
+        <v>18.3933760085944</v>
       </c>
       <c r="G4" t="n">
-        <v>77.214077051805</v>
+        <v>15.710163963964</v>
       </c>
       <c r="H4" t="n">
-        <v>69.8427514717307</v>
+        <v>14.2103761284242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.8845933536853</v>
+        <v>1.46492503701364</v>
       </c>
       <c r="B5" t="n">
-        <v>36.3285735360751</v>
+        <v>4.88935463206523</v>
       </c>
       <c r="C5" t="n">
-        <v>224.576904504977</v>
+        <v>30.2251374446592</v>
       </c>
       <c r="D5" t="n">
-        <v>369.514824462143</v>
+        <v>49.7319008908144</v>
       </c>
       <c r="E5" t="n">
-        <v>167.687760855725</v>
+        <v>22.5685968502568</v>
       </c>
       <c r="F5" t="n">
-        <v>127.140568511498</v>
+        <v>17.1114708635009</v>
       </c>
       <c r="G5" t="n">
-        <v>109.487452260292</v>
+        <v>14.7355904665591</v>
       </c>
       <c r="H5" t="n">
-        <v>99.5349556594268</v>
+        <v>13.3961135584517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.6080578703826</v>
+        <v>1.7651695560148</v>
       </c>
       <c r="B6" t="n">
-        <v>42.6395856034424</v>
+        <v>5.53099487856363</v>
       </c>
       <c r="C6" t="n">
-        <v>245.715006163297</v>
+        <v>31.872927971554</v>
       </c>
       <c r="D6" t="n">
-        <v>392.147231497471</v>
+        <v>50.8673876249002</v>
       </c>
       <c r="E6" t="n">
-        <v>175.413630415851</v>
+        <v>22.7537833149578</v>
       </c>
       <c r="F6" t="n">
-        <v>132.018103101873</v>
+        <v>17.1247314391159</v>
       </c>
       <c r="G6" t="n">
-        <v>113.221980771874</v>
+        <v>14.6865919761544</v>
       </c>
       <c r="H6" t="n">
-        <v>102.675621270793</v>
+        <v>13.3185706982164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.6339304845897</v>
+        <v>2.22106528475246</v>
       </c>
       <c r="B7" t="n">
-        <v>46.0845173973754</v>
+        <v>6.54708819748011</v>
       </c>
       <c r="C7" t="n">
-        <v>254.147740549305</v>
+        <v>36.1060018968834</v>
       </c>
       <c r="D7" t="n">
-        <v>398.114669218604</v>
+        <v>56.5589486293127</v>
       </c>
       <c r="E7" t="n">
-        <v>176.57801341206</v>
+        <v>25.0859050465053</v>
       </c>
       <c r="F7" t="n">
-        <v>132.33568593444</v>
+        <v>18.8005312069548</v>
       </c>
       <c r="G7" t="n">
-        <v>113.230953233088</v>
+        <v>16.0863795341381</v>
       </c>
       <c r="H7" t="n">
-        <v>102.537693600798</v>
+        <v>14.5672204350533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.59298726042189</v>
+        <v>0.569319059348834</v>
       </c>
       <c r="B8" t="n">
-        <v>11.712613838557</v>
+        <v>4.18598092951315</v>
       </c>
       <c r="C8" t="n">
-        <v>62.9356346609111</v>
+        <v>22.4926195048054</v>
       </c>
       <c r="D8" t="n">
-        <v>97.7295202164566</v>
+        <v>34.9276355829177</v>
       </c>
       <c r="E8" t="n">
-        <v>43.7268759526243</v>
+        <v>15.627585043598</v>
       </c>
       <c r="F8" t="n">
-        <v>33.1160993453011</v>
+        <v>11.8353906506297</v>
       </c>
       <c r="G8" t="n">
-        <v>28.583049744855</v>
+        <v>10.2153202341066</v>
       </c>
       <c r="H8" t="n">
-        <v>26.0580581825998</v>
+        <v>9.31291137196284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.55172606006599</v>
+        <v>0.864184274498694</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6467475990579</v>
+        <v>4.78032653223129</v>
       </c>
       <c r="C9" t="n">
-        <v>101.463374900832</v>
+        <v>24.6874481713929</v>
       </c>
       <c r="D9" t="n">
-        <v>153.995722138473</v>
+        <v>37.4692977897247</v>
       </c>
       <c r="E9" t="n">
-        <v>67.8337843586681</v>
+        <v>16.5049017663843</v>
       </c>
       <c r="F9" t="n">
-        <v>50.8010770716679</v>
+        <v>12.3606075441854</v>
       </c>
       <c r="G9" t="n">
-        <v>43.4882105998893</v>
+        <v>10.5812855752207</v>
       </c>
       <c r="H9" t="n">
-        <v>39.4035668884782</v>
+        <v>9.58743503533253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.41157675906225</v>
+        <v>1.13053499224747</v>
       </c>
       <c r="B10" t="n">
-        <v>20.546313354824</v>
+        <v>5.26531158311923</v>
       </c>
       <c r="C10" t="n">
-        <v>102.184990480888</v>
+        <v>26.1864892600611</v>
       </c>
       <c r="D10" t="n">
-        <v>151.478668694434</v>
+        <v>38.8187591174367</v>
       </c>
       <c r="E10" t="n">
-        <v>65.6799552051609</v>
+        <v>16.831507577455</v>
       </c>
       <c r="F10" t="n">
-        <v>48.6720992327475</v>
+        <v>12.4729805994487</v>
       </c>
       <c r="G10" t="n">
-        <v>41.3720315320204</v>
+        <v>10.6022249870717</v>
       </c>
       <c r="H10" t="n">
-        <v>37.3060354596402</v>
+        <v>9.56025040763731</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.378962584843829</v>
+        <v>1.2640432838234</v>
       </c>
       <c r="B2" t="n">
-        <v>1.53811934957172</v>
+        <v>5.13045221692845</v>
       </c>
       <c r="C2" t="n">
-        <v>9.10246712071343</v>
+        <v>30.3616053149489</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7277809340189</v>
+        <v>49.1250411513341</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6568873498812</v>
+        <v>22.2042863393862</v>
       </c>
       <c r="F2" t="n">
-        <v>5.04564402505028</v>
+        <v>16.8299264822063</v>
       </c>
       <c r="G2" t="n">
-        <v>4.34785992448076</v>
+        <v>14.5024426060681</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95577521893888</v>
+        <v>13.1946300183575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.489932551435921</v>
+        <v>1.70223429641747</v>
       </c>
       <c r="B3" t="n">
-        <v>1.77776013748586</v>
+        <v>6.1766956858919</v>
       </c>
       <c r="C3" t="n">
-        <v>9.90818874887477</v>
+        <v>34.4252666092105</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5861237954425</v>
+        <v>54.1528306193402</v>
       </c>
       <c r="E3" t="n">
-        <v>6.94186128108495</v>
+        <v>24.1189819272109</v>
       </c>
       <c r="F3" t="n">
-        <v>5.21732088053289</v>
+        <v>18.1271942683311</v>
       </c>
       <c r="G3" t="n">
-        <v>4.47221013934968</v>
+        <v>15.5383622861456</v>
       </c>
       <c r="H3" t="n">
-        <v>4.05466663350406</v>
+        <v>14.0876383572829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.57238157432479</v>
+        <v>2.03801758311274</v>
       </c>
       <c r="B4" t="n">
-        <v>1.90193911821501</v>
+        <v>6.77203030077387</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1701305122191</v>
+        <v>36.2116911797946</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6853700930224</v>
+        <v>55.8492122757801</v>
       </c>
       <c r="E4" t="n">
-        <v>6.91390658372449</v>
+        <v>24.6176044402749</v>
       </c>
       <c r="F4" t="n">
-        <v>5.16581878595338</v>
+        <v>18.3933760085944</v>
       </c>
       <c r="G4" t="n">
-        <v>4.41223297438884</v>
+        <v>15.710163963964</v>
       </c>
       <c r="H4" t="n">
-        <v>3.99101436981317</v>
+        <v>14.2103761284242</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>1.46492503701364</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.88935463206523</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.2251374446592</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.7319008908144</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5685968502568</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.1114708635009</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.7355904665591</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.3961135584517</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>1.7651695560148</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.53099487856363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.872927971554</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.8673876249002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.7537833149578</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.1247314391159</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.6865919761544</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.3185706982164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.446683728131131</v>
+        <v>2.22106528475246</v>
       </c>
       <c r="B7" t="n">
-        <v>1.31670049706786</v>
+        <v>6.54708819748011</v>
       </c>
       <c r="C7" t="n">
-        <v>7.26136401569439</v>
+        <v>36.1060018968834</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3747048348172</v>
+        <v>56.5589486293127</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0450860974874</v>
+        <v>25.0859050465053</v>
       </c>
       <c r="F7" t="n">
-        <v>3.78101959812685</v>
+        <v>18.8005312069548</v>
       </c>
       <c r="G7" t="n">
-        <v>3.23517009237393</v>
+        <v>16.0863795341381</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92964838859421</v>
+        <v>14.5672204350533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0682708825895092</v>
+        <v>0.569319059348834</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.501969164509584</v>
+        <v>4.18598092951315</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.69724148546761</v>
+        <v>22.4926195048054</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.1884080092767</v>
+        <v>34.9276355829177</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.87400896939818</v>
+        <v>15.627585043598</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.4192614005129</v>
+        <v>11.8353906506297</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.22498784620807</v>
+        <v>10.2153202341066</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.11677392211142</v>
+        <v>9.31291137196284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.101477887430457</v>
+        <v>0.864184274498694</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.561335645687366</v>
+        <v>4.78032653223129</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.8989535685952</v>
+        <v>24.6874481713929</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.39987777538491</v>
+        <v>37.4692977897247</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.93810812453337</v>
+        <v>16.5049017663843</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.45145934490479</v>
+        <v>12.3606075441854</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.24252030285397</v>
+        <v>10.5812855752207</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.12581619681366</v>
+        <v>9.58743503533253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.126045050258921</v>
+        <v>1.13053499224747</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.587037524423541</v>
+        <v>5.26531158311923</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.9195711565968</v>
+        <v>26.1864892600611</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.32796196269811</v>
+        <v>38.8187591174367</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.87657014871888</v>
+        <v>16.831507577455</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.39063140664992</v>
+        <v>12.4729805994487</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.18205804377201</v>
+        <v>10.6022249870717</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.06588672741829</v>
+        <v>9.56025040763731</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.30547618781362</v>
+      </c>
+      <c r="B2" t="n">
+        <v>21.5336708940042</v>
+      </c>
+      <c r="C2" t="n">
+        <v>127.434539689988</v>
+      </c>
+      <c r="D2" t="n">
+        <v>206.188933076266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>93.1964228983371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>70.6390163507042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60.8700389427309</v>
+      </c>
+      <c r="H2" t="n">
+        <v>55.3808530651446</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.57381965012865</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31.1108024060026</v>
+      </c>
+      <c r="C3" t="n">
+        <v>173.393303105309</v>
+      </c>
+      <c r="D3" t="n">
+        <v>272.757166420244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121.482572418987</v>
+      </c>
+      <c r="F3" t="n">
+        <v>91.3031154093259</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78.2636774386198</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70.9566660863213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10.0166775506839</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33.2839345687628</v>
+      </c>
+      <c r="C4" t="n">
+        <v>177.977283963835</v>
+      </c>
+      <c r="D4" t="n">
+        <v>274.493976627893</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120.993365215179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90.4018287541845</v>
+      </c>
+      <c r="G4" t="n">
+        <v>77.214077051805</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69.8427514717307</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10.8845933536853</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36.3285735360751</v>
+      </c>
+      <c r="C5" t="n">
+        <v>224.576904504977</v>
+      </c>
+      <c r="D5" t="n">
+        <v>369.514824462143</v>
+      </c>
+      <c r="E5" t="n">
+        <v>167.687760855725</v>
+      </c>
+      <c r="F5" t="n">
+        <v>127.140568511498</v>
+      </c>
+      <c r="G5" t="n">
+        <v>109.487452260292</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99.5349556594268</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13.6080578703826</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42.6395856034424</v>
+      </c>
+      <c r="C6" t="n">
+        <v>245.715006163297</v>
+      </c>
+      <c r="D6" t="n">
+        <v>392.147231497471</v>
+      </c>
+      <c r="E6" t="n">
+        <v>175.413630415851</v>
+      </c>
+      <c r="F6" t="n">
+        <v>132.018103101873</v>
+      </c>
+      <c r="G6" t="n">
+        <v>113.221980771874</v>
+      </c>
+      <c r="H6" t="n">
+        <v>102.675621270793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15.6339304845897</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.0845173973754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>254.147740549305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>398.114669218604</v>
+      </c>
+      <c r="E7" t="n">
+        <v>176.57801341206</v>
+      </c>
+      <c r="F7" t="n">
+        <v>132.33568593444</v>
+      </c>
+      <c r="G7" t="n">
+        <v>113.230953233088</v>
+      </c>
+      <c r="H7" t="n">
+        <v>102.537693600798</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.59298726042189</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.712613838557</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.9356346609111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>97.7295202164566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43.7268759526243</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33.1160993453011</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.583049744855</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.0580581825998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.55172606006599</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.6467475990579</v>
+      </c>
+      <c r="C9" t="n">
+        <v>101.463374900832</v>
+      </c>
+      <c r="D9" t="n">
+        <v>153.995722138473</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67.8337843586681</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50.8010770716679</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.4882105998893</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39.4035668884782</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.41157675906225</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.546313354824</v>
+      </c>
+      <c r="C10" t="n">
+        <v>102.184990480888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>151.478668694434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65.6799552051609</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48.6720992327475</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41.3720315320204</v>
+      </c>
+      <c r="H10" t="n">
+        <v>37.3060354596402</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.378962584843829</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.53811934957172</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.10246712071343</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.7277809340189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.6568873498812</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.04564402505028</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.34785992448076</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.95577521893888</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.489932551435921</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.77776013748586</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.90818874887477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.5861237954425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.94186128108495</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.21732088053289</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.47221013934968</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.05466663350406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.57238157432479</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.90193911821501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.1701305122191</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.6853700930224</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.91390658372449</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.16581878595338</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.41223297438884</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.99101436981317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.446683728131131</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.31670049706786</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.26136401569439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.3747048348172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.0450860974874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.78101959812685</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.23517009237393</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.92964838859421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.0682708825895092</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.501969164509584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.69724148546761</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.1884080092767</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.87400896939818</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.4192614005129</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.22498784620807</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.11677392211142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.101477887430457</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.561335645687366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.8989535685952</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.39987777538491</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.93810812453337</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.45145934490479</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.24252030285397</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1.12581619681366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.126045050258921</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.587037524423541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.9195711565968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.32796196269811</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.87657014871888</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.39063140664992</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.18205804377201</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.06588672741829</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_9.xlsx
@@ -504,7 +504,7 @@
         <v>3.44680666355969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00510588111978564</v>
+        <v>1.63677415832082</v>
       </c>
       <c r="G2" t="n">
         <v>0.00510588111978564</v>
@@ -557,7 +557,7 @@
         <v>3.44595643991303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00507927371812665</v>
+        <v>1.56909698260745</v>
       </c>
       <c r="G3" t="n">
         <v>0.00507927371812665</v>
@@ -610,7 +610,7 @@
         <v>3.44425725034699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00506380996931241</v>
+        <v>1.5493726704633</v>
       </c>
       <c r="G4" t="n">
         <v>0.00506380996931241</v>
@@ -663,7 +663,7 @@
         <v>3.39878122096519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00491159163910814</v>
+        <v>1.53515011033858</v>
       </c>
       <c r="G5" t="n">
         <v>0.00491159163910814</v>
@@ -716,7 +716,7 @@
         <v>3.40079137411323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00492929379231808</v>
+        <v>1.53262714071824</v>
       </c>
       <c r="G6" t="n">
         <v>0.00492929379231808</v>
@@ -769,7 +769,7 @@
         <v>3.39911981285783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00488677660615302</v>
+        <v>1.48827697734749</v>
       </c>
       <c r="G7" t="n">
         <v>0.00488677660615302</v>
@@ -822,7 +822,7 @@
         <v>4.18402191451837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00470651094178679</v>
+        <v>1.48683715524098</v>
       </c>
       <c r="G8" t="n">
         <v>0.00470651094178679</v>
@@ -875,7 +875,7 @@
         <v>4.18636721828211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00470098163805704</v>
+        <v>1.45662226687256</v>
       </c>
       <c r="G9" t="n">
         <v>0.00470098163805704</v>
@@ -928,7 +928,7 @@
         <v>4.10428158655109</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00468780576126954</v>
+        <v>1.45003790111206</v>
       </c>
       <c r="G10" t="n">
         <v>0.00468780576126954</v>
@@ -981,7 +981,7 @@
         <v>0.724602542638191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00444027905887741</v>
+        <v>1.34248718578907</v>
       </c>
       <c r="G11" t="n">
         <v>0.00444027905887741</v>
@@ -1695,7 +1695,7 @@
         <v>2.72220412092149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000665602060908222</v>
+        <v>0.294286972531752</v>
       </c>
       <c r="F2" t="n">
         <v>0.000665602060908222</v>
@@ -1745,7 +1745,7 @@
         <v>2.72135389727483</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00063899465924924</v>
+        <v>0.22660979681838</v>
       </c>
       <c r="F3" t="n">
         <v>0.00063899465924924</v>
@@ -1795,7 +1795,7 @@
         <v>2.7196547077088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000623530910435</v>
+        <v>0.206885484674227</v>
       </c>
       <c r="F4" t="n">
         <v>0.000623530910435</v>
@@ -1845,7 +1845,7 @@
         <v>2.67417867832699</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000471312580230731</v>
+        <v>0.19266292454951</v>
       </c>
       <c r="F5" t="n">
         <v>0.000471312580230731</v>
@@ -1895,7 +1895,7 @@
         <v>2.67618883147504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00048901473344067</v>
+        <v>0.190139954929175</v>
       </c>
       <c r="F6" t="n">
         <v>0.00048901473344067</v>
@@ -1945,7 +1945,7 @@
         <v>2.67451727021964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000446497547275609</v>
+        <v>0.145789791558423</v>
       </c>
       <c r="F7" t="n">
         <v>0.000446497547275609</v>
@@ -1995,7 +1995,7 @@
         <v>3.45941937188018</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000266231882909381</v>
+        <v>0.144349969451911</v>
       </c>
       <c r="F8" t="n">
         <v>0.000266231882909381</v>
@@ -2045,7 +2045,7 @@
         <v>3.46176467564392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000260702579179631</v>
+        <v>0.114135081083487</v>
       </c>
       <c r="F9" t="n">
         <v>0.000260702579179631</v>
@@ -2095,7 +2095,7 @@
         <v>3.3796790439129</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000247526702392122</v>
+        <v>0.107550715322994</v>
       </c>
       <c r="F10" t="n">
         <v>0.000247526702392122</v>
@@ -2259,7 +2259,7 @@
         <v>3.75682385961589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.149900952638886</v>
+        <v>0.219210265577902</v>
       </c>
       <c r="F2" t="n">
         <v>0.149900952638886</v>
@@ -2309,7 +2309,7 @@
         <v>3.75565049408564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.143908671229053</v>
+        <v>0.168798480326042</v>
       </c>
       <c r="F3" t="n">
         <v>0.143908671229053</v>
@@ -2359,7 +2359,7 @@
         <v>3.75330549877297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.140426063805242</v>
+        <v>0.154106115026064</v>
       </c>
       <c r="F4" t="n">
         <v>0.140426063805242</v>
@@ -2409,7 +2409,7 @@
         <v>3.69054553492267</v>
       </c>
       <c r="E5" t="n">
-        <v>0.106144810715993</v>
+        <v>0.143511928150189</v>
       </c>
       <c r="F5" t="n">
         <v>0.106144810715993</v>
@@ -2459,7 +2459,7 @@
         <v>3.69331968078853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.110131531589887</v>
+        <v>0.141632603232199</v>
       </c>
       <c r="F6" t="n">
         <v>0.110131531589887</v>
@@ -2509,7 +2509,7 @@
         <v>3.69101281439345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.100556190580619</v>
+        <v>0.108596784462216</v>
       </c>
       <c r="F7" t="n">
         <v>0.100556190580619</v>
@@ -2559,7 +2559,7 @@
         <v>4.77423024115378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0599583673411486</v>
+        <v>0.107524281035924</v>
       </c>
       <c r="F8" t="n">
         <v>0.0599583673411486</v>
@@ -2609,7 +2609,7 @@
         <v>4.77746691729793</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0587131069292617</v>
+        <v>0.085017631670281</v>
       </c>
       <c r="F9" t="n">
         <v>0.0587131069292617</v>
@@ -2659,7 +2659,7 @@
         <v>4.66418325225287</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0557457536136706</v>
+        <v>0.0801130293543767</v>
       </c>
       <c r="F10" t="n">
         <v>0.0557457536136706</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.2640432838234</v>
+        <v>0.864381473752549</v>
       </c>
       <c r="B2" t="n">
-        <v>5.13045221692845</v>
+        <v>3.5083196161384</v>
       </c>
       <c r="C2" t="n">
-        <v>30.3616053149489</v>
+        <v>20.7619545022599</v>
       </c>
       <c r="D2" t="n">
-        <v>49.1250411513341</v>
+        <v>33.5928175972787</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2042863393862</v>
+        <v>15.1837947286175</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8299264822063</v>
+        <v>11.5086855347502</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5024426060681</v>
+        <v>9.91709925860119</v>
       </c>
       <c r="H2" t="n">
-        <v>13.1946300183575</v>
+        <v>9.02278734189366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.70223429641747</v>
+        <v>1.45123507773765</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1766956858919</v>
+        <v>5.26592459260305</v>
       </c>
       <c r="C3" t="n">
-        <v>34.4252666092105</v>
+        <v>29.349164547384</v>
       </c>
       <c r="D3" t="n">
-        <v>54.1528306193402</v>
+        <v>46.1678439442615</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1189819272109</v>
+        <v>20.5625704321402</v>
       </c>
       <c r="F3" t="n">
-        <v>18.1271942683311</v>
+        <v>15.4542886596354</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5383622861456</v>
+        <v>13.2471872101911</v>
       </c>
       <c r="H3" t="n">
-        <v>14.0876383572829</v>
+        <v>12.0103765912829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.03801758311274</v>
+        <v>1.85710208263956</v>
       </c>
       <c r="B4" t="n">
-        <v>6.77203030077387</v>
+        <v>6.17087491269679</v>
       </c>
       <c r="C4" t="n">
-        <v>36.2116911797946</v>
+        <v>32.9971672782064</v>
       </c>
       <c r="D4" t="n">
-        <v>55.8492122757801</v>
+        <v>50.8914590779527</v>
       </c>
       <c r="E4" t="n">
-        <v>24.6176044402749</v>
+        <v>22.4322914848484</v>
       </c>
       <c r="F4" t="n">
-        <v>18.3933760085944</v>
+        <v>16.7605898866495</v>
       </c>
       <c r="G4" t="n">
-        <v>15.710163963964</v>
+        <v>14.3155674699949</v>
       </c>
       <c r="H4" t="n">
-        <v>14.2103761284242</v>
+        <v>12.9489163007521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.46492503701364</v>
+        <v>1.08349314772081</v>
       </c>
       <c r="B5" t="n">
-        <v>4.88935463206523</v>
+        <v>3.61628213510449</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2251374446592</v>
+        <v>22.3552253410652</v>
       </c>
       <c r="D5" t="n">
-        <v>49.7319008908144</v>
+        <v>36.7828881866714</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5685968502568</v>
+        <v>16.6922671284095</v>
       </c>
       <c r="F5" t="n">
-        <v>17.1114708635009</v>
+        <v>12.656047892951</v>
       </c>
       <c r="G5" t="n">
-        <v>14.7355904665591</v>
+        <v>10.8987906512163</v>
       </c>
       <c r="H5" t="n">
-        <v>13.3961135584517</v>
+        <v>9.90808190176165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.7651695560148</v>
+        <v>1.37257116146514</v>
       </c>
       <c r="B6" t="n">
-        <v>5.53099487856363</v>
+        <v>4.30082426850112</v>
       </c>
       <c r="C6" t="n">
-        <v>31.872927971554</v>
+        <v>24.7839430586937</v>
       </c>
       <c r="D6" t="n">
-        <v>50.8673876249002</v>
+        <v>39.5537692541198</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7537833149578</v>
+        <v>17.6930237018408</v>
       </c>
       <c r="F6" t="n">
-        <v>17.1247314391159</v>
+        <v>13.3159516835496</v>
       </c>
       <c r="G6" t="n">
-        <v>14.6865919761544</v>
+        <v>11.4200885336965</v>
       </c>
       <c r="H6" t="n">
-        <v>13.3185706982164</v>
+        <v>10.3563343192812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.22106528475246</v>
+        <v>2.05661581207565</v>
       </c>
       <c r="B7" t="n">
-        <v>6.54708819748011</v>
+        <v>6.06233648440105</v>
       </c>
       <c r="C7" t="n">
-        <v>36.1060018968834</v>
+        <v>33.4326842717005</v>
       </c>
       <c r="D7" t="n">
-        <v>56.5589486293127</v>
+        <v>52.3712782618106</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0859050465053</v>
+        <v>23.2285243180598</v>
       </c>
       <c r="F7" t="n">
-        <v>18.8005312069548</v>
+        <v>17.4085246485469</v>
       </c>
       <c r="G7" t="n">
-        <v>16.0863795341381</v>
+        <v>14.8953309639639</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5672204350533</v>
+        <v>13.4886516350468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.569319059348834</v>
+        <v>0.317467282421073</v>
       </c>
       <c r="B8" t="n">
-        <v>4.18598092951315</v>
+        <v>2.334213071101</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4926195048054</v>
+        <v>12.5424762643447</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9276355829177</v>
+        <v>19.4765683105444</v>
       </c>
       <c r="E8" t="n">
-        <v>15.627585043598</v>
+        <v>8.71435247621914</v>
       </c>
       <c r="F8" t="n">
-        <v>11.8353906506297</v>
+        <v>6.59972513575198</v>
       </c>
       <c r="G8" t="n">
-        <v>10.2153202341066</v>
+        <v>5.69633125841965</v>
       </c>
       <c r="H8" t="n">
-        <v>9.31291137196284</v>
+        <v>5.19312434062357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.864184274498694</v>
+        <v>0.596804953494896</v>
       </c>
       <c r="B9" t="n">
-        <v>4.78032653223129</v>
+        <v>3.30128959522397</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6874481713929</v>
+        <v>17.049131525082</v>
       </c>
       <c r="D9" t="n">
-        <v>37.4692977897247</v>
+        <v>25.8762664222917</v>
       </c>
       <c r="E9" t="n">
-        <v>16.5049017663843</v>
+        <v>11.3982716670456</v>
       </c>
       <c r="F9" t="n">
-        <v>12.3606075441854</v>
+        <v>8.53622546517117</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5812855752207</v>
+        <v>7.30742716800657</v>
       </c>
       <c r="H9" t="n">
-        <v>9.58743503533253</v>
+        <v>6.62107479763636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.13053499224747</v>
+        <v>0.786670103943804</v>
       </c>
       <c r="B10" t="n">
-        <v>5.26531158311923</v>
+        <v>3.66380805441025</v>
       </c>
       <c r="C10" t="n">
-        <v>26.1864892600611</v>
+        <v>18.2215750679093</v>
       </c>
       <c r="D10" t="n">
-        <v>38.8187591174367</v>
+        <v>27.0115984726626</v>
       </c>
       <c r="E10" t="n">
-        <v>16.831507577455</v>
+        <v>11.7120159095342</v>
       </c>
       <c r="F10" t="n">
-        <v>12.4729805994487</v>
+        <v>8.67918375985086</v>
       </c>
       <c r="G10" t="n">
-        <v>10.6022249870717</v>
+        <v>7.37743943337369</v>
       </c>
       <c r="H10" t="n">
-        <v>9.56025040763731</v>
+        <v>6.65239310014967</v>
       </c>
     </row>
     <row r="11">
